--- a/data/trans_orig/P6714-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6714-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3B21150-AA03-49CC-96E2-00414D8E08AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC7DF8D9-1C3A-499F-936C-29A5FF1A44F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{65D70C47-F2E6-4BFC-97D8-B6D95C146A78}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0E023354-6BAE-4475-B589-ACC03F94A419}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="688">
   <si>
     <t>Población según si se sienten comprometidos con su profesión en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -96,1972 +96,2011 @@
     <t>1,06%</t>
   </si>
   <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
     <t>6,23%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se sienten comprometidos con su profesión en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>3,88%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
   </si>
   <si>
     <t>47,25%</t>
   </si>
   <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se sienten comprometidos con su profesión en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
     <t>44,82%</t>
   </si>
   <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
   </si>
 </sst>
 </file>
@@ -2473,7 +2512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65B070A-2CEC-4FA5-840D-9E643F3AC596}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FADE01-5D9F-4FC2-83B1-7A7A284176FF}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3503,10 +3542,10 @@
         <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -3518,10 +3557,10 @@
         <v>63</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3575,13 @@
         <v>11138</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -3551,13 +3590,13 @@
         <v>7732</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>15</v>
@@ -3566,13 +3605,13 @@
         <v>18870</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3626,13 @@
         <v>37100</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -3602,13 +3641,13 @@
         <v>29363</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -3617,13 +3656,13 @@
         <v>66463</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3677,13 @@
         <v>47850</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -3653,13 +3692,13 @@
         <v>30015</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -3668,13 +3707,13 @@
         <v>77865</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3728,13 @@
         <v>167683</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H26" s="7">
         <v>106</v>
@@ -3704,13 +3743,13 @@
         <v>117487</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M26" s="7">
         <v>264</v>
@@ -3719,13 +3758,13 @@
         <v>285170</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,7 +3820,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3799,7 +3838,7 @@
         <v>30</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3808,13 +3847,13 @@
         <v>1857</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -3823,13 +3862,13 @@
         <v>4042</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,10 +3886,10 @@
         <v>30</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -3859,13 +3898,13 @@
         <v>4909</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -3874,13 +3913,13 @@
         <v>4909</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,10 +3934,10 @@
         <v>12465</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>167</v>
@@ -3913,10 +3952,10 @@
         <v>168</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
@@ -3925,13 +3964,13 @@
         <v>27237</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3985,13 @@
         <v>15614</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H31" s="7">
         <v>11</v>
@@ -3961,13 +4000,13 @@
         <v>10738</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
@@ -3976,13 +4015,13 @@
         <v>26352</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,13 +4036,13 @@
         <v>52050</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H32" s="7">
         <v>22</v>
@@ -4012,13 +4051,13 @@
         <v>23358</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M32" s="7">
         <v>69</v>
@@ -4027,13 +4066,13 @@
         <v>75408</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,7 +4128,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4104,10 +4143,10 @@
         <v>30</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4119,7 +4158,7 @@
         <v>30</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>73</v>
@@ -4134,10 +4173,10 @@
         <v>30</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4191,13 @@
         <v>1979</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -4167,13 +4206,13 @@
         <v>2349</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M35" s="7">
         <v>4</v>
@@ -4182,13 +4221,13 @@
         <v>4328</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4242,13 @@
         <v>16580</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H36" s="7">
         <v>11</v>
@@ -4218,13 +4257,13 @@
         <v>10839</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M36" s="7">
         <v>28</v>
@@ -4233,7 +4272,7 @@
         <v>27419</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>208</v>
@@ -4409,13 +4448,13 @@
         <v>1944</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H40" s="7">
         <v>5</v>
@@ -4424,13 +4463,13 @@
         <v>4967</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M40" s="7">
         <v>7</v>
@@ -4439,10 +4478,10 @@
         <v>6912</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>235</v>
@@ -4463,10 +4502,10 @@
         <v>236</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H41" s="7">
         <v>10</v>
@@ -4475,13 +4514,13 @@
         <v>11246</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M41" s="7">
         <v>22</v>
@@ -4490,13 +4529,13 @@
         <v>25195</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P41" s="7" t="s">
-        <v>243</v>
-      </c>
       <c r="Q41" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4550,13 @@
         <v>51470</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H42" s="7">
         <v>33</v>
@@ -4526,13 +4565,13 @@
         <v>36936</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M42" s="7">
         <v>82</v>
@@ -4541,13 +4580,13 @@
         <v>88405</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4601,13 @@
         <v>53198</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H43" s="7">
         <v>40</v>
@@ -4577,13 +4616,13 @@
         <v>41541</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M43" s="7">
         <v>93</v>
@@ -4592,13 +4631,13 @@
         <v>94739</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4652,13 @@
         <v>149387</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H44" s="7">
         <v>83</v>
@@ -4628,13 +4667,13 @@
         <v>87476</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M44" s="7">
         <v>219</v>
@@ -4643,13 +4682,13 @@
         <v>236862</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,7 +4744,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4717,13 +4756,13 @@
         <v>5033</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -4732,13 +4771,13 @@
         <v>3384</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M46" s="7">
         <v>8</v>
@@ -4747,13 +4786,13 @@
         <v>8417</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>71</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>17</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4807,13 @@
         <v>15599</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H47" s="7">
         <v>6</v>
@@ -4783,13 +4822,13 @@
         <v>8096</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M47" s="7">
         <v>20</v>
@@ -4798,13 +4837,13 @@
         <v>23695</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4858,13 @@
         <v>47137</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H48" s="7">
         <v>32</v>
@@ -4834,13 +4873,13 @@
         <v>35501</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M48" s="7">
         <v>75</v>
@@ -4849,13 +4888,13 @@
         <v>82639</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4909,13 @@
         <v>128283</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H49" s="7">
         <v>97</v>
@@ -5028,7 +5067,7 @@
         <v>313</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>314</v>
@@ -5055,13 +5094,13 @@
         <v>40287</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>119</v>
+        <v>318</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5115,13 @@
         <v>50441</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H53" s="7">
         <v>34</v>
@@ -5091,10 +5130,10 @@
         <v>40125</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>321</v>
+        <v>76</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>322</v>
@@ -5109,10 +5148,10 @@
         <v>323</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5166,13 @@
         <v>194189</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H54" s="7">
         <v>143</v>
@@ -5142,13 +5181,13 @@
         <v>154624</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M54" s="7">
         <v>326</v>
@@ -5157,13 +5196,13 @@
         <v>348813</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5217,13 @@
         <v>322453</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H55" s="7">
         <v>225</v>
@@ -5193,13 +5232,13 @@
         <v>239243</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M55" s="7">
         <v>535</v>
@@ -5208,13 +5247,13 @@
         <v>561696</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5268,13 @@
         <v>828095</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H56" s="7">
         <v>453</v>
@@ -5244,13 +5283,13 @@
         <v>493001</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M56" s="7">
         <v>1226</v>
@@ -5259,13 +5298,13 @@
         <v>1321096</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,7 +5360,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -5345,7 +5384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E9CE6C-B019-4EB7-9E02-7FB28AF3F4F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FA9FF7-3CAE-43BC-89EE-3FE0DE974DC5}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5362,7 +5401,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5469,13 +5508,13 @@
         <v>7179</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5484,13 +5523,13 @@
         <v>3597</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>113</v>
+        <v>358</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -5499,13 +5538,13 @@
         <v>10776</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5559,13 @@
         <v>14970</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -5535,13 +5574,13 @@
         <v>6009</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>107</v>
+        <v>367</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -5550,13 +5589,13 @@
         <v>20979</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>370</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,13 +5610,13 @@
         <v>24867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -5586,13 +5625,13 @@
         <v>15675</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -5601,13 +5640,13 @@
         <v>40542</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>373</v>
+        <v>255</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,13 +5661,13 @@
         <v>26841</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -5637,13 +5676,13 @@
         <v>19647</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -5652,13 +5691,13 @@
         <v>46488</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,13 +5712,13 @@
         <v>62309</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H8" s="7">
         <v>53</v>
@@ -5688,13 +5727,13 @@
         <v>56047</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>386</v>
+        <v>142</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M8" s="7">
         <v>110</v>
@@ -5703,13 +5742,13 @@
         <v>118356</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,13 +5816,13 @@
         <v>2152</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5792,13 +5831,13 @@
         <v>3098</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -5810,10 +5849,10 @@
         <v>110</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,13 +5867,13 @@
         <v>5156</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -5843,13 +5882,13 @@
         <v>6568</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -5858,13 +5897,13 @@
         <v>11724</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,13 +5918,13 @@
         <v>37836</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>259</v>
+        <v>409</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -5894,13 +5933,13 @@
         <v>10192</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
@@ -5909,13 +5948,13 @@
         <v>48028</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5969,13 @@
         <v>35672</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>410</v>
+        <v>328</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5945,13 +5984,13 @@
         <v>24775</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -5960,13 +5999,13 @@
         <v>60446</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>416</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,13 +6020,13 @@
         <v>89481</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -5996,13 +6035,13 @@
         <v>69048</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="M14" s="7">
         <v>147</v>
@@ -6011,13 +6050,13 @@
         <v>158529</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,13 +6124,13 @@
         <v>3377</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6100,13 +6139,13 @@
         <v>1898</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>230</v>
+        <v>434</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -6118,10 +6157,10 @@
         <v>20</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,13 +6175,13 @@
         <v>2650</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>434</v>
+        <v>285</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -6151,13 +6190,13 @@
         <v>5350</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -6166,13 +6205,13 @@
         <v>8000</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>443</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6187,13 +6226,13 @@
         <v>22054</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>174</v>
+        <v>446</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -6202,13 +6241,13 @@
         <v>16769</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -6217,13 +6256,13 @@
         <v>38823</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6277,13 @@
         <v>43756</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -6253,13 +6292,13 @@
         <v>25626</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="M19" s="7">
         <v>73</v>
@@ -6268,13 +6307,13 @@
         <v>69382</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6328,13 @@
         <v>54547</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>306</v>
+        <v>465</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -6304,13 +6343,13 @@
         <v>34690</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="M20" s="7">
         <v>92</v>
@@ -6319,13 +6358,13 @@
         <v>89236</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6432,13 @@
         <v>3020</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>461</v>
+        <v>403</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>462</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>397</v>
+        <v>472</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -6408,13 +6447,13 @@
         <v>4733</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>463</v>
+        <v>110</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -6423,13 +6462,13 @@
         <v>7753</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>313</v>
+        <v>475</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6483,13 @@
         <v>3643</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6462,10 +6501,10 @@
         <v>30</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -6477,10 +6516,10 @@
         <v>315</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6495,13 +6534,13 @@
         <v>7068</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>483</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>379</v>
+        <v>484</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -6510,13 +6549,13 @@
         <v>7303</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -6525,13 +6564,13 @@
         <v>14372</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6546,13 +6585,13 @@
         <v>7879</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>480</v>
+        <v>235</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6561,13 +6600,13 @@
         <v>9399</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -6576,13 +6615,13 @@
         <v>17278</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6597,13 +6636,13 @@
         <v>90570</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -6612,13 +6651,13 @@
         <v>60423</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="M26" s="7">
         <v>143</v>
@@ -6627,13 +6666,13 @@
         <v>150993</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,7 +6728,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6701,13 +6740,13 @@
         <v>957</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6719,10 +6758,10 @@
         <v>30</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -6731,13 +6770,13 @@
         <v>957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>156</v>
+        <v>509</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>30</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>35</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6755,10 +6794,10 @@
         <v>30</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -6767,13 +6806,13 @@
         <v>2632</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -6782,13 +6821,13 @@
         <v>2632</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>503</v>
+        <v>27</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6803,13 +6842,13 @@
         <v>20297</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>505</v>
+        <v>337</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
@@ -6818,13 +6857,13 @@
         <v>16079</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="M30" s="7">
         <v>36</v>
@@ -6833,13 +6872,13 @@
         <v>36376</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6854,13 +6893,13 @@
         <v>37685</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="H31" s="7">
         <v>25</v>
@@ -6869,13 +6908,13 @@
         <v>23229</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="M31" s="7">
         <v>63</v>
@@ -6884,13 +6923,13 @@
         <v>60914</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6905,13 +6944,13 @@
         <v>21991</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="H32" s="7">
         <v>14</v>
@@ -6920,13 +6959,13 @@
         <v>13478</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="M32" s="7">
         <v>35</v>
@@ -6935,13 +6974,13 @@
         <v>35469</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,7 +7036,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7012,10 +7051,10 @@
         <v>30</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -7024,13 +7063,13 @@
         <v>2323</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>356</v>
+        <v>544</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -7039,13 +7078,13 @@
         <v>2323</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>534</v>
+        <v>77</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>30</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>280</v>
+        <v>545</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7060,13 +7099,13 @@
         <v>12256</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>535</v>
+        <v>240</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>536</v>
+        <v>482</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>293</v>
+        <v>546</v>
       </c>
       <c r="H35" s="7">
         <v>13</v>
@@ -7075,13 +7114,13 @@
         <v>12064</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>537</v>
+        <v>237</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>256</v>
+        <v>547</v>
       </c>
       <c r="M35" s="7">
         <v>25</v>
@@ -7090,13 +7129,13 @@
         <v>24320</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>437</v>
+        <v>548</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7111,13 +7150,13 @@
         <v>35296</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="H36" s="7">
         <v>22</v>
@@ -7126,13 +7165,13 @@
         <v>20824</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="M36" s="7">
         <v>56</v>
@@ -7141,13 +7180,13 @@
         <v>56120</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7162,13 +7201,13 @@
         <v>29527</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="H37" s="7">
         <v>27</v>
@@ -7177,13 +7216,13 @@
         <v>26792</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>554</v>
+        <v>389</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -7192,13 +7231,13 @@
         <v>56320</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7213,13 +7252,13 @@
         <v>30423</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="H38" s="7">
         <v>13</v>
@@ -7228,13 +7267,13 @@
         <v>13566</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="M38" s="7">
         <v>42</v>
@@ -7243,13 +7282,13 @@
         <v>43989</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>253</v>
+        <v>574</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7317,13 +7356,13 @@
         <v>16618</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>567</v>
+        <v>70</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="H40" s="7">
         <v>10</v>
@@ -7332,13 +7371,13 @@
         <v>10696</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="M40" s="7">
         <v>25</v>
@@ -7347,13 +7386,13 @@
         <v>27314</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>573</v>
+        <v>230</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>574</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7368,13 +7407,13 @@
         <v>35338</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="H41" s="7">
         <v>37</v>
@@ -7383,13 +7422,13 @@
         <v>37376</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="M41" s="7">
         <v>68</v>
@@ -7398,13 +7437,13 @@
         <v>72714</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>137</v>
+        <v>589</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7419,13 +7458,13 @@
         <v>101384</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>93</v>
+        <v>594</v>
       </c>
       <c r="H42" s="7">
         <v>66</v>
@@ -7434,13 +7473,13 @@
         <v>66909</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="M42" s="7">
         <v>152</v>
@@ -7449,13 +7488,13 @@
         <v>168294</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7470,13 +7509,13 @@
         <v>81498</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>591</v>
+        <v>379</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>363</v>
+        <v>575</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="H43" s="7">
         <v>71</v>
@@ -7485,13 +7524,13 @@
         <v>74256</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="M43" s="7">
         <v>143</v>
@@ -7500,13 +7539,13 @@
         <v>155754</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7521,13 +7560,13 @@
         <v>125088</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>442</v>
+        <v>609</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="H44" s="7">
         <v>90</v>
@@ -7536,13 +7575,13 @@
         <v>95628</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="M44" s="7">
         <v>199</v>
@@ -7551,13 +7590,13 @@
         <v>220716</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7613,7 +7652,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7625,13 +7664,13 @@
         <v>5336</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>608</v>
+        <v>275</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -7640,13 +7679,13 @@
         <v>1159</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>314</v>
+        <v>619</v>
       </c>
       <c r="M46" s="7">
         <v>6</v>
@@ -7655,13 +7694,13 @@
         <v>6495</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>611</v>
+        <v>274</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>612</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7676,13 +7715,13 @@
         <v>921</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>65</v>
+        <v>622</v>
       </c>
       <c r="H47" s="7">
         <v>4</v>
@@ -7691,13 +7730,13 @@
         <v>4097</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>615</v>
+        <v>68</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -7706,13 +7745,13 @@
         <v>5018</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>570</v>
+        <v>626</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7727,13 +7766,13 @@
         <v>37412</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="H48" s="7">
         <v>31</v>
@@ -7742,13 +7781,13 @@
         <v>30968</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="M48" s="7">
         <v>66</v>
@@ -7757,13 +7796,13 @@
         <v>68380</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7778,13 +7817,13 @@
         <v>115052</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="H49" s="7">
         <v>86</v>
@@ -7793,13 +7832,13 @@
         <v>89489</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="M49" s="7">
         <v>198</v>
@@ -7808,13 +7847,13 @@
         <v>204541</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7829,13 +7868,13 @@
         <v>170217</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>306</v>
+        <v>645</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="H50" s="7">
         <v>109</v>
@@ -7844,13 +7883,13 @@
         <v>114758</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>640</v>
+        <v>189</v>
       </c>
       <c r="M50" s="7">
         <v>271</v>
@@ -7859,13 +7898,13 @@
         <v>284975</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7933,13 +7972,13 @@
         <v>38639</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>569</v>
+        <v>655</v>
       </c>
       <c r="H52" s="7">
         <v>25</v>
@@ -7951,10 +7990,10 @@
         <v>23</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>285</v>
+        <v>624</v>
       </c>
       <c r="M52" s="7">
         <v>60</v>
@@ -7963,13 +8002,13 @@
         <v>66143</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>461</v>
+        <v>403</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>432</v>
+        <v>656</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>278</v>
+        <v>657</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7984,13 +8023,13 @@
         <v>74934</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>118</v>
+        <v>658</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>284</v>
+        <v>659</v>
       </c>
       <c r="H53" s="7">
         <v>74</v>
@@ -7999,13 +8038,13 @@
         <v>74096</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>647</v>
+        <v>28</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>648</v>
+        <v>485</v>
       </c>
       <c r="M53" s="7">
         <v>142</v>
@@ -8014,13 +8053,13 @@
         <v>149030</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>236</v>
+        <v>481</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>646</v>
+        <v>584</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8035,13 +8074,13 @@
         <v>286215</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>81</v>
+        <v>663</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="H54" s="7">
         <v>187</v>
@@ -8050,13 +8089,13 @@
         <v>184719</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>363</v>
+        <v>665</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="M54" s="7">
         <v>447</v>
@@ -8065,13 +8104,13 @@
         <v>470934</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>654</v>
+        <v>331</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8086,13 +8125,13 @@
         <v>377909</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="H55" s="7">
         <v>289</v>
@@ -8101,13 +8140,13 @@
         <v>293214</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="M55" s="7">
         <v>648</v>
@@ -8116,13 +8155,13 @@
         <v>671123</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8137,13 +8176,13 @@
         <v>644625</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="H56" s="7">
         <v>438</v>
@@ -8152,13 +8191,13 @@
         <v>457638</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="M56" s="7">
         <v>1039</v>
@@ -8167,13 +8206,13 @@
         <v>1102263</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8229,7 +8268,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6714-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6714-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC7DF8D9-1C3A-499F-936C-29A5FF1A44F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E7D632B-CEC8-4721-89F3-0B14D0E4C32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0E023354-6BAE-4475-B589-ACC03F94A419}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F0D0F55-EEE1-4BA0-BCBF-C6924554056E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="687">
   <si>
     <t>Población según si se sienten comprometidos con su profesión en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -93,2014 +93,2011 @@
     <t>2,75%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
   </si>
   <si>
     <t>2,34%</t>
   </si>
   <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se sienten comprometidos con su profesión en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
   </si>
   <si>
     <t>47,83%</t>
   </si>
   <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se sienten comprometidos con su profesión en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
     <t>44,12%</t>
   </si>
   <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
   </si>
   <si>
     <t>44,82%</t>
   </si>
   <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
   </si>
 </sst>
 </file>
@@ -2512,7 +2509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FADE01-5D9F-4FC2-83B1-7A7A284176FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBA5063-2C4B-4815-85F1-2D34BA28FFD7}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3237,7 +3234,7 @@
         <v>30</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3246,13 +3243,13 @@
         <v>3876</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3264,13 @@
         <v>3742</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3282,13 +3279,13 @@
         <v>2932</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -3297,13 +3294,13 @@
         <v>6674</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,13 +3315,13 @@
         <v>16990</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -3333,13 +3330,13 @@
         <v>19116</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M18" s="7">
         <v>36</v>
@@ -3348,13 +3345,13 @@
         <v>36105</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3366,13 @@
         <v>39744</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -3384,13 +3381,13 @@
         <v>19034</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>57</v>
@@ -3399,13 +3396,13 @@
         <v>58778</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3417,13 @@
         <v>79835</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -3435,13 +3432,13 @@
         <v>39233</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>119</v>
@@ -3450,13 +3447,13 @@
         <v>119069</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,7 +3509,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3524,13 +3521,13 @@
         <v>5758</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3539,13 +3536,13 @@
         <v>3478</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -3557,10 +3554,10 @@
         <v>63</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,13 +3572,13 @@
         <v>11138</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -3590,13 +3587,13 @@
         <v>7732</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M23" s="7">
         <v>15</v>
@@ -3605,13 +3602,13 @@
         <v>18870</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3623,13 @@
         <v>37100</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -3641,13 +3638,13 @@
         <v>29363</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -3656,13 +3653,13 @@
         <v>66463</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3674,13 @@
         <v>47850</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -3692,13 +3689,13 @@
         <v>30015</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -3707,13 +3704,13 @@
         <v>77865</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3725,13 @@
         <v>167683</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H26" s="7">
         <v>106</v>
@@ -3743,13 +3740,13 @@
         <v>117487</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M26" s="7">
         <v>264</v>
@@ -3758,13 +3755,13 @@
         <v>285170</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,7 +3817,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3838,7 +3835,7 @@
         <v>30</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3847,13 +3844,13 @@
         <v>1857</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -3862,13 +3859,13 @@
         <v>4042</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,10 +3883,10 @@
         <v>30</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -3898,13 +3895,13 @@
         <v>4909</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -3913,13 +3910,13 @@
         <v>4909</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3931,13 @@
         <v>12465</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -3949,13 +3946,13 @@
         <v>14773</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
@@ -3964,13 +3961,13 @@
         <v>27237</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +3982,13 @@
         <v>15614</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H31" s="7">
         <v>11</v>
@@ -4000,13 +3997,13 @@
         <v>10738</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
@@ -4015,13 +4012,13 @@
         <v>26352</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4033,13 @@
         <v>52050</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H32" s="7">
         <v>22</v>
@@ -4051,13 +4048,13 @@
         <v>23358</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M32" s="7">
         <v>69</v>
@@ -4066,13 +4063,13 @@
         <v>75408</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,7 +4125,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4143,10 +4140,10 @@
         <v>30</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4158,10 +4155,10 @@
         <v>30</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4173,10 +4170,10 @@
         <v>30</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4188,13 @@
         <v>1979</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -4206,13 +4203,13 @@
         <v>2349</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M35" s="7">
         <v>4</v>
@@ -4221,13 +4218,13 @@
         <v>4328</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,13 +4239,13 @@
         <v>16580</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H36" s="7">
         <v>11</v>
@@ -4257,13 +4254,13 @@
         <v>10839</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M36" s="7">
         <v>28</v>
@@ -4272,13 +4269,13 @@
         <v>27419</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4290,13 @@
         <v>19953</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -4308,13 +4305,13 @@
         <v>10940</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M37" s="7">
         <v>29</v>
@@ -4323,13 +4320,13 @@
         <v>30893</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,13 +4341,13 @@
         <v>79754</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H38" s="7">
         <v>28</v>
@@ -4359,13 +4356,13 @@
         <v>31163</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M38" s="7">
         <v>100</v>
@@ -4374,13 +4371,13 @@
         <v>110918</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,7 +4433,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4448,13 +4445,13 @@
         <v>1944</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H40" s="7">
         <v>5</v>
@@ -4463,13 +4460,13 @@
         <v>4967</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M40" s="7">
         <v>7</v>
@@ -4478,13 +4475,13 @@
         <v>6912</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,13 +4496,13 @@
         <v>13949</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H41" s="7">
         <v>10</v>
@@ -4514,13 +4511,13 @@
         <v>11246</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M41" s="7">
         <v>22</v>
@@ -4529,13 +4526,13 @@
         <v>25195</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,10 +4565,10 @@
         <v>246</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M42" s="7">
         <v>82</v>
@@ -4580,13 +4577,13 @@
         <v>88405</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4598,13 @@
         <v>53198</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H43" s="7">
         <v>40</v>
@@ -4616,13 +4613,13 @@
         <v>41541</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M43" s="7">
         <v>93</v>
@@ -4631,13 +4628,13 @@
         <v>94739</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4649,13 @@
         <v>149387</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H44" s="7">
         <v>83</v>
@@ -4667,13 +4664,13 @@
         <v>87476</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M44" s="7">
         <v>219</v>
@@ -4682,13 +4679,13 @@
         <v>236862</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,7 +4741,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4756,13 +4753,13 @@
         <v>5033</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -4771,13 +4768,13 @@
         <v>3384</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M46" s="7">
         <v>8</v>
@@ -4786,13 +4783,13 @@
         <v>8417</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>71</v>
+        <v>233</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4804,13 @@
         <v>15599</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H47" s="7">
         <v>6</v>
@@ -4822,13 +4819,13 @@
         <v>8096</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>74</v>
+        <v>283</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M47" s="7">
         <v>20</v>
@@ -4837,13 +4834,13 @@
         <v>23695</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4855,13 @@
         <v>47137</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H48" s="7">
         <v>32</v>
@@ -4873,13 +4870,13 @@
         <v>35501</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M48" s="7">
         <v>75</v>
@@ -4888,13 +4885,13 @@
         <v>82639</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,13 +4906,13 @@
         <v>128283</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H49" s="7">
         <v>97</v>
@@ -4924,13 +4921,13 @@
         <v>105853</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M49" s="7">
         <v>217</v>
@@ -4939,13 +4936,13 @@
         <v>234136</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,13 +4957,13 @@
         <v>166179</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H50" s="7">
         <v>97</v>
@@ -4975,13 +4972,13 @@
         <v>106741</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M50" s="7">
         <v>252</v>
@@ -4990,13 +4987,13 @@
         <v>272921</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5061,13 @@
         <v>22549</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H52" s="7">
         <v>17</v>
@@ -5079,13 +5076,13 @@
         <v>17738</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M52" s="7">
         <v>39</v>
@@ -5094,13 +5091,13 @@
         <v>40287</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,13 +5112,13 @@
         <v>50441</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>199</v>
+        <v>323</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>321</v>
+        <v>68</v>
       </c>
       <c r="H53" s="7">
         <v>34</v>
@@ -5130,13 +5127,13 @@
         <v>40125</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M53" s="7">
         <v>78</v>
@@ -5145,13 +5142,13 @@
         <v>90567</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>323</v>
+        <v>35</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5163,13 @@
         <v>194189</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>326</v>
+        <v>137</v>
       </c>
       <c r="F54" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H54" s="7">
         <v>143</v>
@@ -5181,13 +5178,13 @@
         <v>154624</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M54" s="7">
         <v>326</v>
@@ -5196,13 +5193,13 @@
         <v>348813</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5214,13 @@
         <v>322453</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H55" s="7">
         <v>225</v>
@@ -5232,13 +5229,13 @@
         <v>239243</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M55" s="7">
         <v>535</v>
@@ -5247,13 +5244,13 @@
         <v>561696</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5265,13 @@
         <v>828095</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H56" s="7">
         <v>453</v>
@@ -5283,13 +5280,13 @@
         <v>493001</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M56" s="7">
         <v>1226</v>
@@ -5298,13 +5295,13 @@
         <v>1321096</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,7 +5357,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -5384,7 +5381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FA9FF7-3CAE-43BC-89EE-3FE0DE974DC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0490BEBD-BAC4-4C99-A2D4-37018CF71683}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5401,7 +5398,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5508,13 +5505,13 @@
         <v>7179</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5523,13 +5520,13 @@
         <v>3597</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -5538,13 +5535,13 @@
         <v>10776</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5556,13 @@
         <v>14970</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -5574,13 +5571,13 @@
         <v>6009</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -5589,13 +5586,13 @@
         <v>20979</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,13 +5607,13 @@
         <v>24867</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -5625,13 +5622,13 @@
         <v>15675</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -5640,13 +5637,13 @@
         <v>40542</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>255</v>
+        <v>376</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5658,13 @@
         <v>26841</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -5676,13 +5673,13 @@
         <v>19647</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>383</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>384</v>
+        <v>87</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -5691,13 +5688,13 @@
         <v>46488</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5709,13 @@
         <v>62309</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H8" s="7">
         <v>53</v>
@@ -5727,7 +5724,7 @@
         <v>56047</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>142</v>
+        <v>388</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>389</v>
@@ -5816,13 +5813,13 @@
         <v>2152</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>394</v>
+        <v>76</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5831,13 +5828,13 @@
         <v>3098</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -5846,13 +5843,13 @@
         <v>5250</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>398</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5864,13 @@
         <v>5156</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>400</v>
+        <v>283</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -5882,13 +5879,13 @@
         <v>6568</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -5897,13 +5894,13 @@
         <v>11724</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>406</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5915,13 @@
         <v>37836</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>407</v>
+        <v>340</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -5933,13 +5930,13 @@
         <v>10192</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
@@ -5948,13 +5945,13 @@
         <v>48028</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +5966,13 @@
         <v>35672</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>328</v>
+        <v>411</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>416</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5984,13 +5981,13 @@
         <v>24775</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -5999,13 +5996,13 @@
         <v>60446</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>329</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,13 +6017,13 @@
         <v>89481</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -6035,13 +6032,13 @@
         <v>69048</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="M14" s="7">
         <v>147</v>
@@ -6050,13 +6047,13 @@
         <v>158529</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,13 +6121,13 @@
         <v>3377</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>431</v>
+        <v>323</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6139,13 +6136,13 @@
         <v>1898</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>435</v>
+        <v>31</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -6157,10 +6154,10 @@
         <v>20</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6172,13 @@
         <v>2650</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>433</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -6190,13 +6187,13 @@
         <v>5350</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -6205,13 +6202,13 @@
         <v>8000</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>438</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6223,13 @@
         <v>22054</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>446</v>
+        <v>78</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -6241,13 +6238,13 @@
         <v>16769</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -6256,13 +6253,13 @@
         <v>38823</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6274,13 @@
         <v>43756</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -6292,13 +6289,13 @@
         <v>25626</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="M19" s="7">
         <v>73</v>
@@ -6307,13 +6304,13 @@
         <v>69382</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6328,13 +6325,13 @@
         <v>54547</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -6343,13 +6340,13 @@
         <v>34690</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="M20" s="7">
         <v>92</v>
@@ -6358,13 +6355,13 @@
         <v>89236</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,7 +6417,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6432,13 +6429,13 @@
         <v>3020</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>467</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -6447,13 +6444,13 @@
         <v>4733</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>110</v>
+        <v>469</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -6462,13 +6459,13 @@
         <v>7753</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,13 +6480,13 @@
         <v>3643</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6501,10 +6498,10 @@
         <v>30</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>479</v>
+        <v>316</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -6513,13 +6510,13 @@
         <v>3643</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,13 +6531,13 @@
         <v>7068</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -6549,13 +6546,13 @@
         <v>7303</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -6564,13 +6561,13 @@
         <v>14372</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>449</v>
+        <v>487</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,13 +6582,13 @@
         <v>7879</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>491</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6600,13 +6597,13 @@
         <v>9399</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>492</v>
+        <v>212</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -6615,13 +6612,13 @@
         <v>17278</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>496</v>
+        <v>25</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6636,13 +6633,13 @@
         <v>90570</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -6651,13 +6648,13 @@
         <v>60423</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="M26" s="7">
         <v>143</v>
@@ -6666,13 +6663,13 @@
         <v>150993</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6728,7 +6725,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6740,13 +6737,13 @@
         <v>957</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>507</v>
+        <v>287</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6758,10 +6755,10 @@
         <v>30</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -6770,13 +6767,13 @@
         <v>957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>509</v>
+        <v>153</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>30</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6794,10 +6791,10 @@
         <v>30</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>479</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -6806,13 +6803,13 @@
         <v>2632</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -6821,13 +6818,13 @@
         <v>2632</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>27</v>
+        <v>507</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6842,13 +6839,13 @@
         <v>20297</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>337</v>
+        <v>509</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
@@ -6857,13 +6854,13 @@
         <v>16079</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="M30" s="7">
         <v>36</v>
@@ -6872,13 +6869,13 @@
         <v>36376</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6893,13 +6890,13 @@
         <v>37685</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="H31" s="7">
         <v>25</v>
@@ -6908,13 +6905,13 @@
         <v>23229</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M31" s="7">
         <v>63</v>
@@ -6923,13 +6920,13 @@
         <v>60914</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6944,13 +6941,13 @@
         <v>21991</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H32" s="7">
         <v>14</v>
@@ -6959,13 +6956,13 @@
         <v>13478</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="M32" s="7">
         <v>35</v>
@@ -6974,13 +6971,13 @@
         <v>35469</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7036,7 +7033,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7051,10 +7048,10 @@
         <v>30</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -7063,13 +7060,13 @@
         <v>2323</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -7078,13 +7075,13 @@
         <v>2323</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>30</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,13 +7096,13 @@
         <v>12256</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>540</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H35" s="7">
         <v>13</v>
@@ -7114,13 +7111,13 @@
         <v>12064</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>237</v>
+        <v>543</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>547</v>
+        <v>336</v>
       </c>
       <c r="M35" s="7">
         <v>25</v>
@@ -7129,13 +7126,13 @@
         <v>24320</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,13 +7147,13 @@
         <v>35296</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H36" s="7">
         <v>22</v>
@@ -7165,13 +7162,13 @@
         <v>20824</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>555</v>
+        <v>80</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M36" s="7">
         <v>56</v>
@@ -7180,13 +7177,13 @@
         <v>56120</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,13 +7198,13 @@
         <v>29527</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="H37" s="7">
         <v>27</v>
@@ -7216,13 +7213,13 @@
         <v>26792</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>563</v>
+        <v>519</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>389</v>
+        <v>559</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -7231,13 +7228,13 @@
         <v>56320</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7252,13 +7249,13 @@
         <v>30423</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="H38" s="7">
         <v>13</v>
@@ -7267,13 +7264,13 @@
         <v>13566</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="M38" s="7">
         <v>42</v>
@@ -7282,13 +7279,13 @@
         <v>43989</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7344,7 +7341,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7356,13 +7353,13 @@
         <v>16618</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>577</v>
+        <v>406</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>70</v>
+        <v>572</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="H40" s="7">
         <v>10</v>
@@ -7371,13 +7368,13 @@
         <v>10696</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M40" s="7">
         <v>25</v>
@@ -7386,13 +7383,13 @@
         <v>27314</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>230</v>
+        <v>578</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>66</v>
+        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7407,13 +7404,13 @@
         <v>35338</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H41" s="7">
         <v>37</v>
@@ -7422,13 +7419,13 @@
         <v>37376</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>587</v>
+        <v>74</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="M41" s="7">
         <v>68</v>
@@ -7437,13 +7434,13 @@
         <v>72714</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,13 +7455,13 @@
         <v>101384</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>594</v>
+        <v>213</v>
       </c>
       <c r="H42" s="7">
         <v>66</v>
@@ -7473,13 +7470,13 @@
         <v>66909</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="M42" s="7">
         <v>152</v>
@@ -7488,13 +7485,13 @@
         <v>168294</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>599</v>
+        <v>375</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,13 +7506,13 @@
         <v>81498</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>379</v>
+        <v>595</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="H43" s="7">
         <v>71</v>
@@ -7524,13 +7521,13 @@
         <v>74256</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="M43" s="7">
         <v>143</v>
@@ -7539,13 +7536,13 @@
         <v>155754</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>607</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7560,13 +7557,13 @@
         <v>125088</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>609</v>
+        <v>257</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="H44" s="7">
         <v>90</v>
@@ -7575,13 +7572,13 @@
         <v>95628</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="M44" s="7">
         <v>199</v>
@@ -7590,13 +7587,13 @@
         <v>220716</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7652,7 +7649,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7664,13 +7661,13 @@
         <v>5336</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>27</v>
+        <v>507</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>275</v>
+        <v>612</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -7679,13 +7676,13 @@
         <v>1159</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>619</v>
+        <v>323</v>
       </c>
       <c r="M46" s="7">
         <v>6</v>
@@ -7694,13 +7691,13 @@
         <v>6495</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>274</v>
+        <v>67</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>29</v>
+        <v>615</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7715,13 +7712,13 @@
         <v>921</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="H47" s="7">
         <v>4</v>
@@ -7730,13 +7727,13 @@
         <v>4097</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>68</v>
+        <v>619</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -7745,13 +7742,13 @@
         <v>5018</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>163</v>
+        <v>475</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>626</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7766,13 +7763,13 @@
         <v>37412</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H48" s="7">
         <v>31</v>
@@ -7781,13 +7778,13 @@
         <v>30968</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="M48" s="7">
         <v>66</v>
@@ -7796,13 +7793,13 @@
         <v>68380</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,13 +7814,13 @@
         <v>115052</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>636</v>
+        <v>310</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="H49" s="7">
         <v>86</v>
@@ -7832,13 +7829,13 @@
         <v>89489</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="M49" s="7">
         <v>198</v>
@@ -7847,13 +7844,13 @@
         <v>204541</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,13 +7865,13 @@
         <v>170217</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="H50" s="7">
         <v>109</v>
@@ -7883,13 +7880,13 @@
         <v>114758</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>189</v>
+        <v>644</v>
       </c>
       <c r="M50" s="7">
         <v>271</v>
@@ -7898,13 +7895,13 @@
         <v>284975</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7972,13 +7969,13 @@
         <v>38639</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="H52" s="7">
         <v>25</v>
@@ -7990,10 +7987,10 @@
         <v>23</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>115</v>
+        <v>651</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>624</v>
+        <v>285</v>
       </c>
       <c r="M52" s="7">
         <v>60</v>
@@ -8002,13 +7999,13 @@
         <v>66143</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,13 +8020,13 @@
         <v>74934</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H53" s="7">
         <v>74</v>
@@ -8038,13 +8035,13 @@
         <v>74096</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>660</v>
+        <v>64</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>28</v>
+        <v>656</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>485</v>
+        <v>367</v>
       </c>
       <c r="M53" s="7">
         <v>142</v>
@@ -8053,13 +8050,13 @@
         <v>149030</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>481</v>
+        <v>658</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8074,13 +8071,13 @@
         <v>286215</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>662</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>664</v>
       </c>
       <c r="H54" s="7">
         <v>187</v>
@@ -8089,13 +8086,13 @@
         <v>184719</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>665</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>667</v>
       </c>
       <c r="M54" s="7">
         <v>447</v>
@@ -8104,13 +8101,13 @@
         <v>470934</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>331</v>
+        <v>666</v>
       </c>
       <c r="P54" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>668</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8125,13 +8122,13 @@
         <v>377909</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>671</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>672</v>
       </c>
       <c r="H55" s="7">
         <v>289</v>
@@ -8140,13 +8137,13 @@
         <v>293214</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>674</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>675</v>
       </c>
       <c r="M55" s="7">
         <v>648</v>
@@ -8155,13 +8152,13 @@
         <v>671123</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>677</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8176,13 +8173,13 @@
         <v>644625</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>680</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>681</v>
       </c>
       <c r="H56" s="7">
         <v>438</v>
@@ -8191,13 +8188,13 @@
         <v>457638</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>684</v>
       </c>
       <c r="M56" s="7">
         <v>1039</v>
@@ -8206,13 +8203,13 @@
         <v>1102263</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>686</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8268,7 +8265,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6714-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6714-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E7D632B-CEC8-4721-89F3-0B14D0E4C32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40373414-E6AD-4F23-8570-F7C6DF152309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F0D0F55-EEE1-4BA0-BCBF-C6924554056E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3360486D-C2E4-439F-B683-6578207EACD4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="675">
   <si>
     <t>Población según si se sienten comprometidos con su profesión en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -93,10 +93,10 @@
     <t>2,75%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
   </si>
   <si>
     <t>2,5%</t>
@@ -105,1999 +105,1963 @@
     <t>0,77%</t>
   </si>
   <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
   </si>
   <si>
     <t>3,83%</t>
   </si>
   <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,02%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se sienten comprometidos con su profesión en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se sienten comprometidos con su profesión en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
   </si>
   <si>
     <t>22,49%</t>
   </si>
   <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
   </si>
   <si>
     <t>19,15%</t>
   </si>
   <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
   </si>
   <si>
     <t>26,57%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
   </si>
   <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
   </si>
   <si>
     <t>27,29%</t>
   </si>
   <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
   </si>
   <si>
     <t>45,32%</t>
   </si>
   <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
   </si>
   <si>
     <t>44,12%</t>
   </si>
   <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
   </si>
   <si>
     <t>44,82%</t>
   </si>
   <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
   </si>
 </sst>
 </file>
@@ -2509,7 +2473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBA5063-2C4B-4815-85F1-2D34BA28FFD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BC5524-E3E5-49E9-839C-0CC00C8BA9E3}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3234,7 +3198,7 @@
         <v>30</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3243,13 +3207,13 @@
         <v>3876</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3228,13 @@
         <v>3742</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3279,13 +3243,13 @@
         <v>2932</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -3294,13 +3258,13 @@
         <v>6674</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3279,13 @@
         <v>16990</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -3330,13 +3294,13 @@
         <v>19116</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M18" s="7">
         <v>36</v>
@@ -3345,13 +3309,13 @@
         <v>36105</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3330,13 @@
         <v>39744</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -3381,13 +3345,13 @@
         <v>19034</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>57</v>
@@ -3396,13 +3360,13 @@
         <v>58778</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3381,13 @@
         <v>79835</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -3432,13 +3396,13 @@
         <v>39233</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>119</v>
@@ -3447,13 +3411,13 @@
         <v>119069</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,7 +3473,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3521,13 +3485,13 @@
         <v>5758</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3536,13 +3500,13 @@
         <v>3478</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -3554,10 +3518,10 @@
         <v>63</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3536,13 @@
         <v>11138</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -3587,13 +3551,13 @@
         <v>7732</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>15</v>
@@ -3602,13 +3566,13 @@
         <v>18870</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3587,13 @@
         <v>37100</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -3638,13 +3602,13 @@
         <v>29363</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -3653,13 +3617,13 @@
         <v>66463</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3638,13 @@
         <v>47850</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -3689,13 +3653,13 @@
         <v>30015</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -3704,13 +3668,13 @@
         <v>77865</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3689,13 @@
         <v>167683</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H26" s="7">
         <v>106</v>
@@ -3740,13 +3704,13 @@
         <v>117487</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M26" s="7">
         <v>264</v>
@@ -3755,13 +3719,13 @@
         <v>285170</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,7 +3781,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3835,7 +3799,7 @@
         <v>30</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3844,13 +3808,13 @@
         <v>1857</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -3859,13 +3823,13 @@
         <v>4042</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,10 +3847,10 @@
         <v>30</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -3895,13 +3859,13 @@
         <v>4909</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -3910,13 +3874,13 @@
         <v>4909</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +3895,13 @@
         <v>12465</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -3946,13 +3910,13 @@
         <v>14773</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
@@ -3961,13 +3925,13 @@
         <v>27237</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,13 +3946,13 @@
         <v>15614</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H31" s="7">
         <v>11</v>
@@ -3997,13 +3961,13 @@
         <v>10738</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
@@ -4012,13 +3976,13 @@
         <v>26352</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +3997,13 @@
         <v>52050</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H32" s="7">
         <v>22</v>
@@ -4048,13 +4012,13 @@
         <v>23358</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M32" s="7">
         <v>69</v>
@@ -4063,13 +4027,13 @@
         <v>75408</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,7 +4089,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4140,10 +4104,10 @@
         <v>30</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4155,10 +4119,10 @@
         <v>30</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4170,10 +4134,10 @@
         <v>30</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4152,13 @@
         <v>1979</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -4203,13 +4167,13 @@
         <v>2349</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M35" s="7">
         <v>4</v>
@@ -4218,13 +4182,13 @@
         <v>4328</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4203,13 @@
         <v>16580</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H36" s="7">
         <v>11</v>
@@ -4254,13 +4218,13 @@
         <v>10839</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M36" s="7">
         <v>28</v>
@@ -4269,13 +4233,13 @@
         <v>27419</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,13 +4254,13 @@
         <v>19953</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -4305,13 +4269,13 @@
         <v>10940</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M37" s="7">
         <v>29</v>
@@ -4320,13 +4284,13 @@
         <v>30893</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,13 +4305,13 @@
         <v>79754</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H38" s="7">
         <v>28</v>
@@ -4356,13 +4320,13 @@
         <v>31163</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M38" s="7">
         <v>100</v>
@@ -4371,13 +4335,13 @@
         <v>110918</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,7 +4397,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4445,13 +4409,13 @@
         <v>1944</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H40" s="7">
         <v>5</v>
@@ -4460,13 +4424,13 @@
         <v>4967</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M40" s="7">
         <v>7</v>
@@ -4475,13 +4439,13 @@
         <v>6912</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>233</v>
+        <v>71</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,13 +4460,13 @@
         <v>13949</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H41" s="7">
         <v>10</v>
@@ -4511,13 +4475,13 @@
         <v>11246</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M41" s="7">
         <v>22</v>
@@ -4526,13 +4490,13 @@
         <v>25195</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,13 +4511,13 @@
         <v>51470</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H42" s="7">
         <v>33</v>
@@ -4562,13 +4526,13 @@
         <v>36936</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M42" s="7">
         <v>82</v>
@@ -4577,13 +4541,13 @@
         <v>88405</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4562,13 @@
         <v>53198</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H43" s="7">
         <v>40</v>
@@ -4613,13 +4577,13 @@
         <v>41541</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M43" s="7">
         <v>93</v>
@@ -4628,13 +4592,13 @@
         <v>94739</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4613,13 @@
         <v>149387</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H44" s="7">
         <v>83</v>
@@ -4664,13 +4628,13 @@
         <v>87476</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M44" s="7">
         <v>219</v>
@@ -4679,13 +4643,13 @@
         <v>236862</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,7 +4705,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4753,13 +4717,13 @@
         <v>5033</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -4768,13 +4732,13 @@
         <v>3384</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M46" s="7">
         <v>8</v>
@@ -4783,13 +4747,13 @@
         <v>8417</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>233</v>
+        <v>71</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>278</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,10 +4768,10 @@
         <v>15599</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>280</v>
+        <v>29</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>281</v>
@@ -4888,10 +4852,10 @@
         <v>294</v>
       </c>
       <c r="P48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,13 +4870,13 @@
         <v>128283</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>298</v>
-      </c>
       <c r="G49" s="7" t="s">
-        <v>299</v>
+        <v>169</v>
       </c>
       <c r="H49" s="7">
         <v>97</v>
@@ -4921,13 +4885,13 @@
         <v>105853</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M49" s="7">
         <v>217</v>
@@ -4936,13 +4900,13 @@
         <v>234136</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,13 +4921,13 @@
         <v>166179</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H50" s="7">
         <v>97</v>
@@ -4972,13 +4936,13 @@
         <v>106741</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M50" s="7">
         <v>252</v>
@@ -4987,13 +4951,13 @@
         <v>272921</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,13 +5025,13 @@
         <v>22549</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H52" s="7">
         <v>17</v>
@@ -5076,13 +5040,13 @@
         <v>17738</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M52" s="7">
         <v>39</v>
@@ -5091,13 +5055,13 @@
         <v>40287</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>320</v>
+        <v>119</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,13 +5076,13 @@
         <v>50441</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>323</v>
+        <v>70</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>68</v>
+        <v>320</v>
       </c>
       <c r="H53" s="7">
         <v>34</v>
@@ -5127,13 +5091,13 @@
         <v>40125</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>152</v>
+        <v>321</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M53" s="7">
         <v>78</v>
@@ -5142,13 +5106,13 @@
         <v>90567</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>35</v>
+        <v>323</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,10 +5127,10 @@
         <v>194189</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>137</v>
+        <v>325</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>327</v>
@@ -5217,10 +5181,10 @@
         <v>334</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>159</v>
+        <v>335</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H55" s="7">
         <v>225</v>
@@ -5229,13 +5193,13 @@
         <v>239243</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M55" s="7">
         <v>535</v>
@@ -5244,13 +5208,13 @@
         <v>561696</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5229,13 @@
         <v>828095</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H56" s="7">
         <v>453</v>
@@ -5280,13 +5244,13 @@
         <v>493001</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M56" s="7">
         <v>1226</v>
@@ -5295,13 +5259,13 @@
         <v>1321096</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,7 +5321,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -5381,7 +5345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0490BEBD-BAC4-4C99-A2D4-37018CF71683}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CFD626-2C63-403E-93DE-64198394697A}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5398,7 +5362,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5505,13 +5469,13 @@
         <v>7179</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5520,10 +5484,10 @@
         <v>3597</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>356</v>
+        <v>113</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>357</v>
@@ -5574,10 +5538,10 @@
         <v>364</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -5586,13 +5550,13 @@
         <v>20979</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +5571,13 @@
         <v>24867</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -5622,13 +5586,13 @@
         <v>15675</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -5637,13 +5601,13 @@
         <v>40542</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +5622,13 @@
         <v>26841</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -5673,13 +5637,13 @@
         <v>19647</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>87</v>
+        <v>380</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -5688,13 +5652,13 @@
         <v>46488</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5673,13 @@
         <v>62309</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H8" s="7">
         <v>53</v>
@@ -5724,13 +5688,13 @@
         <v>56047</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M8" s="7">
         <v>110</v>
@@ -5739,13 +5703,13 @@
         <v>118356</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,13 +5777,13 @@
         <v>2152</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5828,13 +5792,13 @@
         <v>3098</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -5843,13 +5807,13 @@
         <v>5250</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5828,13 @@
         <v>5156</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -5879,13 +5843,13 @@
         <v>6568</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -5894,13 +5858,13 @@
         <v>11724</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5879,13 @@
         <v>37836</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>340</v>
+        <v>403</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>404</v>
+        <v>259</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -5933,10 +5897,10 @@
         <v>405</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
@@ -5945,13 +5909,13 @@
         <v>48028</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5930,13 @@
         <v>35672</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5999,10 +5963,10 @@
         <v>415</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +5981,13 @@
         <v>89481</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -6032,13 +5996,13 @@
         <v>69048</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M14" s="7">
         <v>147</v>
@@ -6047,13 +6011,13 @@
         <v>158529</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,13 +6085,13 @@
         <v>3377</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>323</v>
+        <v>427</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6136,13 +6100,13 @@
         <v>1898</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>428</v>
+        <v>230</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>31</v>
+        <v>430</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -6154,10 +6118,10 @@
         <v>20</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6136,13 @@
         <v>2650</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -6187,13 +6151,13 @@
         <v>5350</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -6202,13 +6166,13 @@
         <v>8000</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>437</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>438</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6187,13 @@
         <v>22054</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -6238,13 +6202,13 @@
         <v>16769</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -6253,13 +6217,13 @@
         <v>38823</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6238,13 @@
         <v>43756</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -6289,13 +6253,13 @@
         <v>25626</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M19" s="7">
         <v>73</v>
@@ -6304,13 +6268,13 @@
         <v>69382</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6289,13 @@
         <v>54547</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>459</v>
+        <v>306</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -6340,13 +6304,13 @@
         <v>34690</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M20" s="7">
         <v>92</v>
@@ -6355,13 +6319,13 @@
         <v>89236</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,7 +6381,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6429,13 +6393,13 @@
         <v>3020</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>468</v>
+        <v>397</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -6444,13 +6408,13 @@
         <v>4733</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -6459,13 +6423,13 @@
         <v>7753</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>472</v>
+        <v>313</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6444,13 @@
         <v>3643</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6498,10 +6462,10 @@
         <v>30</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>316</v>
+        <v>470</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -6510,13 +6474,13 @@
         <v>3643</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6531,13 +6495,13 @@
         <v>7068</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>480</v>
+        <v>159</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>481</v>
+        <v>379</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -6546,13 +6510,13 @@
         <v>7303</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -6561,13 +6525,13 @@
         <v>14372</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,13 +6546,13 @@
         <v>7879</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6597,13 +6561,13 @@
         <v>9399</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>212</v>
+        <v>482</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -6612,13 +6576,13 @@
         <v>17278</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>25</v>
+        <v>486</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,13 +6597,13 @@
         <v>90570</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -6648,13 +6612,13 @@
         <v>60423</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="M26" s="7">
         <v>143</v>
@@ -6663,13 +6627,13 @@
         <v>150993</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6725,7 +6689,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6737,13 +6701,13 @@
         <v>957</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>287</v>
+        <v>497</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6755,10 +6719,10 @@
         <v>30</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -6767,13 +6731,13 @@
         <v>957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>30</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>503</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,10 +6755,10 @@
         <v>30</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>470</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -6803,13 +6767,13 @@
         <v>2632</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -6818,13 +6782,13 @@
         <v>2632</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6839,13 +6803,13 @@
         <v>20297</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
@@ -6854,13 +6818,13 @@
         <v>16079</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M30" s="7">
         <v>36</v>
@@ -6869,13 +6833,13 @@
         <v>36376</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6890,13 +6854,13 @@
         <v>37685</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H31" s="7">
         <v>25</v>
@@ -6905,13 +6869,13 @@
         <v>23229</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="M31" s="7">
         <v>63</v>
@@ -6920,13 +6884,13 @@
         <v>60914</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6941,13 +6905,13 @@
         <v>21991</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H32" s="7">
         <v>14</v>
@@ -6956,13 +6920,13 @@
         <v>13478</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="M32" s="7">
         <v>35</v>
@@ -6971,13 +6935,13 @@
         <v>35469</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7033,7 +6997,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7048,10 +7012,10 @@
         <v>30</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -7060,13 +7024,13 @@
         <v>2323</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>538</v>
+        <v>356</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -7075,13 +7039,13 @@
         <v>2323</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>161</v>
+        <v>534</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>30</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>539</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7096,13 +7060,13 @@
         <v>12256</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>542</v>
+        <v>293</v>
       </c>
       <c r="H35" s="7">
         <v>13</v>
@@ -7111,13 +7075,13 @@
         <v>12064</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="M35" s="7">
         <v>25</v>
@@ -7126,13 +7090,13 @@
         <v>24320</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>544</v>
+        <v>437</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7147,13 +7111,13 @@
         <v>35296</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H36" s="7">
         <v>22</v>
@@ -7162,13 +7126,13 @@
         <v>20824</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>80</v>
+        <v>544</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="M36" s="7">
         <v>56</v>
@@ -7177,13 +7141,13 @@
         <v>56120</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7198,13 +7162,13 @@
         <v>29527</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H37" s="7">
         <v>27</v>
@@ -7213,13 +7177,13 @@
         <v>26792</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -7228,13 +7192,13 @@
         <v>56320</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,13 +7213,13 @@
         <v>30423</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="H38" s="7">
         <v>13</v>
@@ -7264,13 +7228,13 @@
         <v>13566</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="M38" s="7">
         <v>42</v>
@@ -7279,13 +7243,13 @@
         <v>43989</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>569</v>
+        <v>253</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7341,7 +7305,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7353,13 +7317,13 @@
         <v>16618</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>406</v>
+        <v>566</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="H40" s="7">
         <v>10</v>
@@ -7368,13 +7332,13 @@
         <v>10696</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="M40" s="7">
         <v>25</v>
@@ -7383,13 +7347,13 @@
         <v>27314</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,13 +7368,13 @@
         <v>35338</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="H41" s="7">
         <v>37</v>
@@ -7419,13 +7383,13 @@
         <v>37376</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>74</v>
+        <v>579</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M41" s="7">
         <v>68</v>
@@ -7434,13 +7398,13 @@
         <v>72714</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>585</v>
+        <v>137</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7455,13 +7419,13 @@
         <v>101384</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>213</v>
+        <v>93</v>
       </c>
       <c r="H42" s="7">
         <v>66</v>
@@ -7470,13 +7434,13 @@
         <v>66909</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="M42" s="7">
         <v>152</v>
@@ -7485,13 +7449,13 @@
         <v>168294</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>375</v>
+        <v>589</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7506,13 +7470,13 @@
         <v>81498</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>596</v>
+        <v>363</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="H43" s="7">
         <v>71</v>
@@ -7521,13 +7485,13 @@
         <v>74256</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="M43" s="7">
         <v>143</v>
@@ -7536,13 +7500,13 @@
         <v>155754</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>87</v>
+        <v>598</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7557,13 +7521,13 @@
         <v>125088</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>257</v>
+        <v>442</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H44" s="7">
         <v>90</v>
@@ -7572,13 +7536,13 @@
         <v>95628</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="M44" s="7">
         <v>199</v>
@@ -7587,13 +7551,13 @@
         <v>220716</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7649,7 +7613,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7661,13 +7625,13 @@
         <v>5336</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>507</v>
+        <v>111</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -7676,13 +7640,13 @@
         <v>1159</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="M46" s="7">
         <v>6</v>
@@ -7691,13 +7655,13 @@
         <v>6495</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>67</v>
+        <v>611</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7712,13 +7676,13 @@
         <v>921</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>617</v>
+        <v>65</v>
       </c>
       <c r="H47" s="7">
         <v>4</v>
@@ -7727,13 +7691,13 @@
         <v>4097</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -7742,13 +7706,13 @@
         <v>5018</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>475</v>
+        <v>164</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>400</v>
+        <v>570</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7763,13 +7727,13 @@
         <v>37412</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="H48" s="7">
         <v>31</v>
@@ -7778,13 +7742,13 @@
         <v>30968</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="M48" s="7">
         <v>66</v>
@@ -7793,13 +7757,13 @@
         <v>68380</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7814,13 +7778,13 @@
         <v>115052</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>310</v>
+        <v>627</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H49" s="7">
         <v>86</v>
@@ -7829,13 +7793,13 @@
         <v>89489</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M49" s="7">
         <v>198</v>
@@ -7844,13 +7808,13 @@
         <v>204541</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7865,13 +7829,13 @@
         <v>170217</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>639</v>
+        <v>306</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H50" s="7">
         <v>109</v>
@@ -7880,13 +7844,13 @@
         <v>114758</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="M50" s="7">
         <v>271</v>
@@ -7895,13 +7859,13 @@
         <v>284975</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7969,13 +7933,13 @@
         <v>38639</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>650</v>
+        <v>569</v>
       </c>
       <c r="H52" s="7">
         <v>25</v>
@@ -7987,7 +7951,7 @@
         <v>23</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>651</v>
+        <v>192</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>285</v>
@@ -7999,13 +7963,13 @@
         <v>66143</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>652</v>
+        <v>432</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>653</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8020,13 +7984,13 @@
         <v>74934</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>654</v>
+        <v>118</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>655</v>
+        <v>284</v>
       </c>
       <c r="H53" s="7">
         <v>74</v>
@@ -8035,13 +7999,13 @@
         <v>74096</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>64</v>
+        <v>646</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>367</v>
+        <v>648</v>
       </c>
       <c r="M53" s="7">
         <v>142</v>
@@ -8050,13 +8014,13 @@
         <v>149030</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>658</v>
+        <v>236</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8071,13 +8035,13 @@
         <v>286215</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>661</v>
+        <v>81</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="H54" s="7">
         <v>187</v>
@@ -8086,13 +8050,13 @@
         <v>184719</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>663</v>
+        <v>363</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="M54" s="7">
         <v>447</v>
@@ -8101,13 +8065,13 @@
         <v>470934</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8122,13 +8086,13 @@
         <v>377909</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="H55" s="7">
         <v>289</v>
@@ -8137,13 +8101,13 @@
         <v>293214</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="M55" s="7">
         <v>648</v>
@@ -8152,13 +8116,13 @@
         <v>671123</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8173,13 +8137,13 @@
         <v>644625</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="H56" s="7">
         <v>438</v>
@@ -8188,13 +8152,13 @@
         <v>457638</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="M56" s="7">
         <v>1039</v>
@@ -8203,13 +8167,13 @@
         <v>1102263</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8265,7 +8229,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6714-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6714-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40373414-E6AD-4F23-8570-F7C6DF152309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBF5E409-2A7A-42C0-AFD2-269B8E0993D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3360486D-C2E4-439F-B683-6578207EACD4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0D8F3A8B-C990-4AA8-9D5A-469C544C18AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="712">
   <si>
     <t>Población según si se sienten comprometidos con su profesión en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -72,21 +72,156 @@
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
   </si>
   <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
     <t>Muchas veces</t>
   </si>
   <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -132,9 +267,6 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
     <t>0,97%</t>
   </si>
   <si>
@@ -222,9 +354,6 @@
     <t>79,9%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -270,9 +399,6 @@
     <t>2,97%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
     <t>5,94%</t>
   </si>
   <si>
@@ -360,1510 +486,1495 @@
     <t>Granada</t>
   </si>
   <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se sienten comprometidos con su profesión en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
     <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se sienten comprometidos con su profesión en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
   </si>
   <si>
     <t>0,48%</t>
@@ -2473,7 +2584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BC5524-E3E5-49E9-839C-0CC00C8BA9E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B22FD6-E998-4C7F-A93B-FA7004F47180}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2591,223 +2702,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4743</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3478</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="N4" s="7">
+        <v>8221</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6793</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3617</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="N5" s="7">
+        <v>10410</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>18890</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I6" s="7">
+        <v>7957</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="N6" s="7">
+        <v>26847</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D7" s="7">
+        <v>11044</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I7" s="7">
+        <v>9313</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="N7" s="7">
+        <v>20357</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="D8" s="7">
+        <v>85370</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="I8" s="7">
+        <v>63163</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="N8" s="7">
+        <v>148533</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,48 +2957,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="D9" s="7">
+        <v>126840</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="I9" s="7">
+        <v>87529</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>200</v>
+      </c>
+      <c r="N9" s="7">
+        <v>214369</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2869,13 +3016,13 @@
         <v>4738</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2884,13 +3031,13 @@
         <v>3066</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2899,19 +3046,19 @@
         <v>7804</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>4</v>
@@ -2920,13 +3067,13 @@
         <v>4034</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2935,13 +3082,13 @@
         <v>2863</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2950,19 +3097,19 @@
         <v>6897</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>12</v>
@@ -2971,13 +3118,13 @@
         <v>12449</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -2986,13 +3133,13 @@
         <v>8095</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -3001,19 +3148,19 @@
         <v>20544</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>17</v>
@@ -3022,13 +3169,13 @@
         <v>17811</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -3037,13 +3184,13 @@
         <v>21122</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -3052,19 +3199,19 @@
         <v>38933</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>123</v>
@@ -3073,13 +3220,13 @@
         <v>133207</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>80</v>
@@ -3088,13 +3235,13 @@
         <v>87542</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>203</v>
@@ -3103,13 +3250,13 @@
         <v>220749</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3271,13 @@
         <v>172240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>111</v>
@@ -3139,13 +3286,13 @@
         <v>122688</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>272</v>
@@ -3154,18 +3301,18 @@
         <v>294928</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3177,13 +3324,13 @@
         <v>2890</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3192,13 +3339,13 @@
         <v>986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3207,19 +3354,19 @@
         <v>3876</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
@@ -3228,13 +3375,13 @@
         <v>3742</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3243,13 +3390,13 @@
         <v>2932</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -3258,19 +3405,19 @@
         <v>6674</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>18</v>
@@ -3279,13 +3426,13 @@
         <v>16990</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -3294,13 +3441,13 @@
         <v>19116</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>36</v>
@@ -3309,19 +3456,19 @@
         <v>36105</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>39</v>
@@ -3330,13 +3477,13 @@
         <v>39744</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -3345,13 +3492,13 @@
         <v>19034</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="M19" s="7">
         <v>57</v>
@@ -3360,19 +3507,19 @@
         <v>58778</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>82</v>
@@ -3381,13 +3528,13 @@
         <v>79835</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -3396,13 +3543,13 @@
         <v>39233</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>119</v>
@@ -3411,13 +3558,13 @@
         <v>119069</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3579,13 @@
         <v>143201</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>77</v>
@@ -3447,13 +3594,13 @@
         <v>81301</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>222</v>
@@ -3462,270 +3609,270 @@
         <v>224502</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>5758</v>
+        <v>1015</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>3478</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>9236</v>
+        <v>1015</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>11138</v>
+        <v>4345</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="H23" s="7">
+        <v>4</v>
+      </c>
+      <c r="I23" s="7">
+        <v>4114</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M23" s="7">
         <v>7</v>
       </c>
-      <c r="I23" s="7">
-        <v>7732</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M23" s="7">
-        <v>15</v>
-      </c>
       <c r="N23" s="7">
-        <v>18870</v>
+        <v>8459</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D24" s="7">
-        <v>37100</v>
+        <v>18210</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I24" s="7">
-        <v>29363</v>
+        <v>21406</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="N24" s="7">
-        <v>66463</v>
+        <v>39616</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D25" s="7">
-        <v>47850</v>
+        <v>36806</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I25" s="7">
-        <v>30015</v>
+        <v>20702</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="N25" s="7">
-        <v>77865</v>
+        <v>57508</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="D26" s="7">
-        <v>167683</v>
+        <v>82313</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="I26" s="7">
-        <v>117487</v>
+        <v>54324</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
-        <v>264</v>
+        <v>123</v>
       </c>
       <c r="N26" s="7">
-        <v>285170</v>
+        <v>136637</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,54 +3881,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>253</v>
+        <v>131</v>
       </c>
       <c r="D27" s="7">
-        <v>269529</v>
+        <v>142689</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="I27" s="7">
-        <v>188075</v>
+        <v>100546</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
-        <v>425</v>
+        <v>225</v>
       </c>
       <c r="N27" s="7">
-        <v>457604</v>
+        <v>243236</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3793,13 +3940,13 @@
         <v>2185</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3808,13 +3955,13 @@
         <v>1857</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -3823,19 +3970,19 @@
         <v>4042</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -3844,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -3859,13 +4006,13 @@
         <v>4909</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -3874,19 +4021,19 @@
         <v>4909</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>11</v>
@@ -3895,13 +4042,13 @@
         <v>12465</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -3910,13 +4057,13 @@
         <v>14773</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
@@ -3925,19 +4072,19 @@
         <v>27237</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>15</v>
@@ -3946,13 +4093,13 @@
         <v>15614</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>11</v>
@@ -3961,13 +4108,13 @@
         <v>10738</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
@@ -3976,19 +4123,19 @@
         <v>26352</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>47</v>
@@ -3997,13 +4144,13 @@
         <v>52050</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>22</v>
@@ -4012,13 +4159,13 @@
         <v>23358</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>69</v>
@@ -4027,13 +4174,13 @@
         <v>75408</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,13 +4195,13 @@
         <v>82314</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>54</v>
@@ -4063,13 +4210,13 @@
         <v>55634</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>129</v>
@@ -4078,18 +4225,18 @@
         <v>137947</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4101,13 +4248,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4116,13 +4263,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4131,19 +4278,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
         <v>2</v>
@@ -4152,13 +4299,13 @@
         <v>1979</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -4167,13 +4314,13 @@
         <v>2349</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="M35" s="7">
         <v>4</v>
@@ -4182,19 +4329,19 @@
         <v>4328</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>17</v>
@@ -4203,13 +4350,13 @@
         <v>16580</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="H36" s="7">
         <v>11</v>
@@ -4218,13 +4365,13 @@
         <v>10839</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="M36" s="7">
         <v>28</v>
@@ -4233,19 +4380,19 @@
         <v>27419</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>18</v>
@@ -4254,13 +4401,13 @@
         <v>19953</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -4269,13 +4416,13 @@
         <v>10940</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="M37" s="7">
         <v>29</v>
@@ -4284,19 +4431,19 @@
         <v>30893</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>72</v>
@@ -4305,13 +4452,13 @@
         <v>79754</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="H38" s="7">
         <v>28</v>
@@ -4320,13 +4467,13 @@
         <v>31163</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="M38" s="7">
         <v>100</v>
@@ -4335,13 +4482,13 @@
         <v>110918</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4503,13 @@
         <v>118266</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>52</v>
@@ -4371,13 +4518,13 @@
         <v>55292</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>161</v>
@@ -4386,18 +4533,18 @@
         <v>173558</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4409,13 +4556,13 @@
         <v>1944</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="H40" s="7">
         <v>5</v>
@@ -4424,13 +4571,13 @@
         <v>4967</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="M40" s="7">
         <v>7</v>
@@ -4439,19 +4586,19 @@
         <v>6912</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C41" s="7">
         <v>12</v>
@@ -4460,13 +4607,13 @@
         <v>13949</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="H41" s="7">
         <v>10</v>
@@ -4475,13 +4622,13 @@
         <v>11246</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="M41" s="7">
         <v>22</v>
@@ -4490,19 +4637,19 @@
         <v>25195</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C42" s="7">
         <v>49</v>
@@ -4511,13 +4658,13 @@
         <v>51470</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="H42" s="7">
         <v>33</v>
@@ -4526,13 +4673,13 @@
         <v>36936</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="M42" s="7">
         <v>82</v>
@@ -4541,19 +4688,19 @@
         <v>88405</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C43" s="7">
         <v>53</v>
@@ -4562,13 +4709,13 @@
         <v>53198</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="H43" s="7">
         <v>40</v>
@@ -4577,13 +4724,13 @@
         <v>41541</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="M43" s="7">
         <v>93</v>
@@ -4592,19 +4739,19 @@
         <v>94739</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>136</v>
@@ -4613,13 +4760,13 @@
         <v>149387</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="H44" s="7">
         <v>83</v>
@@ -4628,13 +4775,13 @@
         <v>87476</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="M44" s="7">
         <v>219</v>
@@ -4643,13 +4790,13 @@
         <v>236862</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4811,13 @@
         <v>269948</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>171</v>
@@ -4679,13 +4826,13 @@
         <v>182165</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>423</v>
@@ -4694,18 +4841,18 @@
         <v>452113</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4717,13 +4864,13 @@
         <v>5033</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -4732,13 +4879,13 @@
         <v>3384</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>278</v>
+        <v>159</v>
       </c>
       <c r="M46" s="7">
         <v>8</v>
@@ -4747,19 +4894,19 @@
         <v>8417</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C47" s="7">
         <v>14</v>
@@ -4768,13 +4915,13 @@
         <v>15599</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="H47" s="7">
         <v>6</v>
@@ -4783,13 +4930,13 @@
         <v>8096</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="M47" s="7">
         <v>20</v>
@@ -4798,19 +4945,19 @@
         <v>23695</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C48" s="7">
         <v>43</v>
@@ -4819,13 +4966,13 @@
         <v>47137</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="H48" s="7">
         <v>32</v>
@@ -4834,13 +4981,13 @@
         <v>35501</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="M48" s="7">
         <v>75</v>
@@ -4849,19 +4996,19 @@
         <v>82639</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C49" s="7">
         <v>120</v>
@@ -4870,13 +5017,13 @@
         <v>128283</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="H49" s="7">
         <v>97</v>
@@ -4885,13 +5032,13 @@
         <v>105853</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="M49" s="7">
         <v>217</v>
@@ -4900,19 +5047,19 @@
         <v>234136</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C50" s="7">
         <v>155</v>
@@ -4921,13 +5068,13 @@
         <v>166179</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="H50" s="7">
         <v>97</v>
@@ -4936,13 +5083,13 @@
         <v>106741</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="M50" s="7">
         <v>252</v>
@@ -4951,13 +5098,13 @@
         <v>272921</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,13 +5119,13 @@
         <v>362232</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H51" s="7">
         <v>235</v>
@@ -4987,13 +5134,13 @@
         <v>259575</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M51" s="7">
         <v>572</v>
@@ -5002,13 +5149,13 @@
         <v>621807</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5172,13 @@
         <v>22549</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="H52" s="7">
         <v>17</v>
@@ -5040,13 +5187,13 @@
         <v>17738</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>316</v>
+        <v>157</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="M52" s="7">
         <v>39</v>
@@ -5055,19 +5202,19 @@
         <v>40287</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>119</v>
+        <v>351</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C53" s="7">
         <v>44</v>
@@ -5076,13 +5223,13 @@
         <v>50441</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="H53" s="7">
         <v>34</v>
@@ -5091,13 +5238,13 @@
         <v>40125</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="M53" s="7">
         <v>78</v>
@@ -5106,19 +5253,19 @@
         <v>90567</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>323</v>
+        <v>17</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C54" s="7">
         <v>183</v>
@@ -5127,13 +5274,13 @@
         <v>194189</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="H54" s="7">
         <v>143</v>
@@ -5142,13 +5289,13 @@
         <v>154624</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="M54" s="7">
         <v>326</v>
@@ -5157,19 +5304,19 @@
         <v>348813</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C55" s="7">
         <v>310</v>
@@ -5178,13 +5325,13 @@
         <v>322453</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="H55" s="7">
         <v>225</v>
@@ -5193,13 +5340,13 @@
         <v>239243</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="M55" s="7">
         <v>535</v>
@@ -5208,34 +5355,34 @@
         <v>561696</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C56" s="7">
         <v>773</v>
       </c>
       <c r="D56" s="7">
-        <v>828095</v>
+        <v>828096</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="H56" s="7">
         <v>453</v>
@@ -5244,13 +5391,13 @@
         <v>493001</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="M56" s="7">
         <v>1226</v>
@@ -5259,13 +5406,13 @@
         <v>1321096</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,16 +5424,16 @@
         <v>1332</v>
       </c>
       <c r="D57" s="7">
-        <v>1417728</v>
+        <v>1417729</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H57" s="7">
         <v>872</v>
@@ -5295,13 +5442,13 @@
         <v>944731</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M57" s="7">
         <v>2204</v>
@@ -5310,18 +5457,18 @@
         <v>2362459</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -5345,7 +5492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CFD626-2C63-403E-93DE-64198394697A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A382020D-854D-40E7-A6D6-FF14DA54B3EA}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5362,7 +5509,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5469,13 +5616,13 @@
         <v>7179</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5484,13 +5631,13 @@
         <v>3597</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>113</v>
+        <v>390</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -5499,19 +5646,19 @@
         <v>10776</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>13</v>
@@ -5520,13 +5667,13 @@
         <v>14970</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -5535,13 +5682,13 @@
         <v>6009</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>107</v>
+        <v>399</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -5550,19 +5697,19 @@
         <v>20979</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>21</v>
@@ -5571,13 +5718,13 @@
         <v>24867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -5586,13 +5733,13 @@
         <v>15675</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -5601,19 +5748,19 @@
         <v>40542</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>23</v>
@@ -5622,13 +5769,13 @@
         <v>26841</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -5637,13 +5784,13 @@
         <v>19647</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -5652,19 +5799,19 @@
         <v>46488</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>57</v>
@@ -5673,13 +5820,13 @@
         <v>62309</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="H8" s="7">
         <v>53</v>
@@ -5688,13 +5835,13 @@
         <v>56047</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="M8" s="7">
         <v>110</v>
@@ -5703,13 +5850,13 @@
         <v>118356</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5871,13 @@
         <v>136166</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>98</v>
@@ -5739,13 +5886,13 @@
         <v>100975</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>218</v>
@@ -5754,18 +5901,18 @@
         <v>237141</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5777,13 +5924,13 @@
         <v>2152</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5792,13 +5939,13 @@
         <v>3098</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -5807,19 +5954,19 @@
         <v>5250</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>110</v>
+        <v>430</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>5</v>
@@ -5828,13 +5975,13 @@
         <v>5156</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>396</v>
+        <v>433</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -5843,13 +5990,13 @@
         <v>6568</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>400</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -5858,19 +6005,19 @@
         <v>11724</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>35</v>
@@ -5879,13 +6026,13 @@
         <v>37836</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -5894,13 +6041,13 @@
         <v>10192</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
@@ -5909,19 +6056,19 @@
         <v>48028</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>34</v>
@@ -5930,13 +6077,13 @@
         <v>35672</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5945,13 +6092,13 @@
         <v>24775</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -5960,19 +6107,19 @@
         <v>60446</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>415</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>417</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>81</v>
@@ -5981,13 +6128,13 @@
         <v>89481</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -5996,13 +6143,13 @@
         <v>69048</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="M14" s="7">
         <v>147</v>
@@ -6011,13 +6158,13 @@
         <v>158529</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +6179,13 @@
         <v>170297</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>109</v>
@@ -6047,13 +6194,13 @@
         <v>113680</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>266</v>
@@ -6062,18 +6209,18 @@
         <v>283977</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6085,13 +6232,13 @@
         <v>3377</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6100,13 +6247,13 @@
         <v>1898</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>430</v>
+        <v>465</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -6115,19 +6262,19 @@
         <v>5276</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>431</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>3</v>
@@ -6136,13 +6283,13 @@
         <v>2650</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>432</v>
+        <v>467</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -6151,13 +6298,13 @@
         <v>5350</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>435</v>
+        <v>470</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>437</v>
+        <v>472</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -6166,19 +6313,19 @@
         <v>8000</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>473</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>23</v>
@@ -6187,13 +6334,13 @@
         <v>22054</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -6202,13 +6349,13 @@
         <v>16769</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>441</v>
+        <v>477</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -6217,19 +6364,19 @@
         <v>38823</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>444</v>
+        <v>165</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>445</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>45</v>
@@ -6238,13 +6385,13 @@
         <v>43756</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>447</v>
+        <v>482</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -6253,13 +6400,13 @@
         <v>25626</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>449</v>
+        <v>484</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>450</v>
+        <v>485</v>
       </c>
       <c r="M19" s="7">
         <v>73</v>
@@ -6268,19 +6415,19 @@
         <v>69382</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>452</v>
+        <v>487</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>453</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>58</v>
@@ -6289,13 +6436,13 @@
         <v>54547</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>454</v>
+        <v>489</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>455</v>
+        <v>490</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -6304,13 +6451,13 @@
         <v>34690</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>456</v>
+        <v>491</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>457</v>
+        <v>492</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>458</v>
+        <v>493</v>
       </c>
       <c r="M20" s="7">
         <v>92</v>
@@ -6319,13 +6466,13 @@
         <v>89236</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>450</v>
+        <v>485</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>459</v>
+        <v>494</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6340,13 +6487,13 @@
         <v>126384</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -6355,13 +6502,13 @@
         <v>84333</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>218</v>
@@ -6370,18 +6517,18 @@
         <v>210717</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6393,13 +6540,13 @@
         <v>3020</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -6408,13 +6555,13 @@
         <v>4733</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>463</v>
+        <v>498</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>464</v>
+        <v>499</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -6423,19 +6570,19 @@
         <v>7753</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>466</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>3</v>
@@ -6444,13 +6591,13 @@
         <v>3643</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>467</v>
+        <v>502</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6459,13 +6606,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -6474,19 +6621,19 @@
         <v>3643</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>471</v>
+        <v>506</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>472</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>7</v>
@@ -6495,13 +6642,13 @@
         <v>7068</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -6510,13 +6657,13 @@
         <v>7303</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>474</v>
+        <v>509</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -6525,19 +6672,19 @@
         <v>14372</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>478</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>7</v>
@@ -6546,13 +6693,13 @@
         <v>7879</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6561,13 +6708,13 @@
         <v>9399</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>484</v>
+        <v>519</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -6576,19 +6723,19 @@
         <v>17278</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>485</v>
+        <v>520</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>486</v>
+        <v>521</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>487</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>84</v>
@@ -6597,13 +6744,13 @@
         <v>90570</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>488</v>
+        <v>523</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -6612,13 +6759,13 @@
         <v>60423</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>491</v>
+        <v>526</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>493</v>
+        <v>528</v>
       </c>
       <c r="M26" s="7">
         <v>143</v>
@@ -6627,13 +6774,13 @@
         <v>150993</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>495</v>
+        <v>530</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>496</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6648,13 +6795,13 @@
         <v>112180</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>79</v>
@@ -6663,13 +6810,13 @@
         <v>81859</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>183</v>
@@ -6678,18 +6825,18 @@
         <v>194039</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6701,13 +6848,13 @@
         <v>957</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>497</v>
+        <v>532</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6716,13 +6863,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -6731,19 +6878,19 @@
         <v>957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -6752,13 +6899,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -6767,13 +6914,13 @@
         <v>2632</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>499</v>
+        <v>534</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>500</v>
+        <v>535</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>501</v>
+        <v>536</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -6782,19 +6929,19 @@
         <v>2632</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>502</v>
+        <v>537</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>503</v>
+        <v>538</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>19</v>
@@ -6803,13 +6950,13 @@
         <v>20297</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>505</v>
+        <v>540</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>506</v>
+        <v>541</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>507</v>
+        <v>542</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
@@ -6818,13 +6965,13 @@
         <v>16079</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>508</v>
+        <v>543</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>509</v>
+        <v>544</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>510</v>
+        <v>545</v>
       </c>
       <c r="M30" s="7">
         <v>36</v>
@@ -6833,19 +6980,19 @@
         <v>36376</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>511</v>
+        <v>546</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>512</v>
+        <v>547</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>513</v>
+        <v>548</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>38</v>
@@ -6854,13 +7001,13 @@
         <v>37685</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>514</v>
+        <v>549</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>515</v>
+        <v>550</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>516</v>
+        <v>551</v>
       </c>
       <c r="H31" s="7">
         <v>25</v>
@@ -6869,13 +7016,13 @@
         <v>23229</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>517</v>
+        <v>552</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="M31" s="7">
         <v>63</v>
@@ -6884,19 +7031,19 @@
         <v>60914</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>21</v>
@@ -6905,13 +7052,13 @@
         <v>21991</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="H32" s="7">
         <v>14</v>
@@ -6920,13 +7067,13 @@
         <v>13478</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="M32" s="7">
         <v>35</v>
@@ -6935,13 +7082,13 @@
         <v>35469</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6956,13 +7103,13 @@
         <v>80930</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>59</v>
@@ -6971,13 +7118,13 @@
         <v>55418</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>138</v>
@@ -6986,18 +7133,18 @@
         <v>136348</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7009,13 +7156,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -7024,13 +7171,13 @@
         <v>2323</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -7039,19 +7186,19 @@
         <v>2323</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
         <v>12</v>
@@ -7060,13 +7207,13 @@
         <v>12256</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="H35" s="7">
         <v>13</v>
@@ -7075,13 +7222,13 @@
         <v>12064</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>136</v>
+        <v>572</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>537</v>
+        <v>573</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="M35" s="7">
         <v>25</v>
@@ -7090,19 +7237,19 @@
         <v>24320</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>437</v>
+        <v>472</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>539</v>
+        <v>575</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>34</v>
@@ -7111,13 +7258,13 @@
         <v>35296</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>540</v>
+        <v>576</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>541</v>
+        <v>577</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>542</v>
+        <v>578</v>
       </c>
       <c r="H36" s="7">
         <v>22</v>
@@ -7126,13 +7273,13 @@
         <v>20824</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>543</v>
+        <v>579</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>544</v>
+        <v>580</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>545</v>
+        <v>581</v>
       </c>
       <c r="M36" s="7">
         <v>56</v>
@@ -7141,19 +7288,19 @@
         <v>56120</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>546</v>
+        <v>582</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>547</v>
+        <v>583</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>28</v>
@@ -7162,13 +7309,13 @@
         <v>29527</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>549</v>
+        <v>585</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>551</v>
+        <v>587</v>
       </c>
       <c r="H37" s="7">
         <v>27</v>
@@ -7177,13 +7324,13 @@
         <v>26792</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>552</v>
+        <v>588</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>553</v>
+        <v>589</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>554</v>
+        <v>590</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -7192,19 +7339,19 @@
         <v>56320</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>555</v>
+        <v>591</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>556</v>
+        <v>592</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>557</v>
+        <v>593</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>29</v>
@@ -7213,13 +7360,13 @@
         <v>30423</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>559</v>
+        <v>595</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>560</v>
+        <v>596</v>
       </c>
       <c r="H38" s="7">
         <v>13</v>
@@ -7228,13 +7375,13 @@
         <v>13566</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>561</v>
+        <v>597</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>562</v>
+        <v>598</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="M38" s="7">
         <v>42</v>
@@ -7243,13 +7390,13 @@
         <v>43989</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>564</v>
+        <v>600</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>565</v>
+        <v>601</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7264,13 +7411,13 @@
         <v>107502</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>77</v>
@@ -7279,13 +7426,13 @@
         <v>75568</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>180</v>
@@ -7294,18 +7441,18 @@
         <v>183071</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7317,13 +7464,13 @@
         <v>16618</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>566</v>
+        <v>602</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>567</v>
+        <v>603</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>568</v>
+        <v>604</v>
       </c>
       <c r="H40" s="7">
         <v>10</v>
@@ -7332,13 +7479,13 @@
         <v>10696</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>569</v>
+        <v>605</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>570</v>
+        <v>606</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>571</v>
+        <v>607</v>
       </c>
       <c r="M40" s="7">
         <v>25</v>
@@ -7347,19 +7494,19 @@
         <v>27314</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>572</v>
+        <v>608</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>573</v>
+        <v>609</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>574</v>
+        <v>610</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C41" s="7">
         <v>31</v>
@@ -7368,13 +7515,13 @@
         <v>35338</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>575</v>
+        <v>611</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>576</v>
+        <v>612</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>577</v>
+        <v>613</v>
       </c>
       <c r="H41" s="7">
         <v>37</v>
@@ -7383,13 +7530,13 @@
         <v>37376</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>578</v>
+        <v>614</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>579</v>
+        <v>615</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>580</v>
+        <v>616</v>
       </c>
       <c r="M41" s="7">
         <v>68</v>
@@ -7398,19 +7545,19 @@
         <v>72714</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>137</v>
+        <v>617</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>581</v>
+        <v>618</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>582</v>
+        <v>619</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C42" s="7">
         <v>86</v>
@@ -7419,13 +7566,13 @@
         <v>101384</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>583</v>
+        <v>620</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>584</v>
+        <v>621</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="H42" s="7">
         <v>66</v>
@@ -7434,13 +7581,13 @@
         <v>66909</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>585</v>
+        <v>622</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>586</v>
+        <v>623</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>587</v>
+        <v>624</v>
       </c>
       <c r="M42" s="7">
         <v>152</v>
@@ -7449,19 +7596,19 @@
         <v>168294</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>588</v>
+        <v>625</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>589</v>
+        <v>626</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>590</v>
+        <v>627</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C43" s="7">
         <v>72</v>
@@ -7470,13 +7617,13 @@
         <v>81498</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>591</v>
+        <v>628</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>592</v>
+        <v>629</v>
       </c>
       <c r="H43" s="7">
         <v>71</v>
@@ -7485,13 +7632,13 @@
         <v>74256</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>594</v>
+        <v>631</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>595</v>
+        <v>632</v>
       </c>
       <c r="M43" s="7">
         <v>143</v>
@@ -7500,19 +7647,19 @@
         <v>155754</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>596</v>
+        <v>633</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>597</v>
+        <v>634</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>598</v>
+        <v>635</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>109</v>
@@ -7521,13 +7668,13 @@
         <v>125088</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>599</v>
+        <v>636</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>600</v>
+        <v>637</v>
       </c>
       <c r="H44" s="7">
         <v>90</v>
@@ -7536,13 +7683,13 @@
         <v>95628</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>601</v>
+        <v>638</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>602</v>
+        <v>639</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>603</v>
+        <v>640</v>
       </c>
       <c r="M44" s="7">
         <v>199</v>
@@ -7551,13 +7698,13 @@
         <v>220716</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>604</v>
+        <v>641</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>605</v>
+        <v>642</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>606</v>
+        <v>643</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7572,13 +7719,13 @@
         <v>359926</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>274</v>
@@ -7587,13 +7734,13 @@
         <v>284866</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>587</v>
@@ -7602,18 +7749,18 @@
         <v>644792</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7625,13 +7772,13 @@
         <v>5336</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>607</v>
+        <v>644</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>111</v>
+        <v>645</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>608</v>
+        <v>11</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -7640,13 +7787,13 @@
         <v>1159</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>609</v>
+        <v>646</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="M46" s="7">
         <v>6</v>
@@ -7655,19 +7802,19 @@
         <v>6495</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>610</v>
+        <v>647</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>611</v>
+        <v>648</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>612</v>
+        <v>649</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -7676,13 +7823,13 @@
         <v>921</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>613</v>
+        <v>650</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="H47" s="7">
         <v>4</v>
@@ -7691,13 +7838,13 @@
         <v>4097</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>614</v>
+        <v>651</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>615</v>
+        <v>652</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>616</v>
+        <v>653</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -7706,19 +7853,19 @@
         <v>5018</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>617</v>
+        <v>654</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>570</v>
+        <v>606</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C48" s="7">
         <v>35</v>
@@ -7727,13 +7874,13 @@
         <v>37412</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>618</v>
+        <v>655</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>619</v>
+        <v>656</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>620</v>
+        <v>657</v>
       </c>
       <c r="H48" s="7">
         <v>31</v>
@@ -7742,13 +7889,13 @@
         <v>30968</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>621</v>
+        <v>658</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>622</v>
+        <v>659</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>623</v>
+        <v>660</v>
       </c>
       <c r="M48" s="7">
         <v>66</v>
@@ -7757,19 +7904,19 @@
         <v>68380</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>624</v>
+        <v>661</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>626</v>
+        <v>663</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C49" s="7">
         <v>112</v>
@@ -7778,13 +7925,13 @@
         <v>115052</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>627</v>
+        <v>664</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>628</v>
+        <v>665</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>629</v>
+        <v>666</v>
       </c>
       <c r="H49" s="7">
         <v>86</v>
@@ -7793,13 +7940,13 @@
         <v>89489</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>630</v>
+        <v>667</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>631</v>
+        <v>668</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>632</v>
+        <v>669</v>
       </c>
       <c r="M49" s="7">
         <v>198</v>
@@ -7808,19 +7955,19 @@
         <v>204541</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>633</v>
+        <v>670</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>634</v>
+        <v>671</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>635</v>
+        <v>672</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C50" s="7">
         <v>162</v>
@@ -7829,13 +7976,13 @@
         <v>170217</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>636</v>
+        <v>673</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>637</v>
+        <v>674</v>
       </c>
       <c r="H50" s="7">
         <v>109</v>
@@ -7844,13 +7991,13 @@
         <v>114758</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>638</v>
+        <v>675</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>639</v>
+        <v>676</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>640</v>
+        <v>677</v>
       </c>
       <c r="M50" s="7">
         <v>271</v>
@@ -7859,13 +8006,13 @@
         <v>284975</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>641</v>
+        <v>678</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>642</v>
+        <v>679</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>643</v>
+        <v>680</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7880,13 +8027,13 @@
         <v>328937</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H51" s="7">
         <v>231</v>
@@ -7895,13 +8042,13 @@
         <v>240471</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M51" s="7">
         <v>546</v>
@@ -7910,13 +8057,13 @@
         <v>569408</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7933,13 +8080,13 @@
         <v>38639</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>644</v>
+        <v>681</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>645</v>
+        <v>682</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>569</v>
+        <v>605</v>
       </c>
       <c r="H52" s="7">
         <v>25</v>
@@ -7948,13 +8095,13 @@
         <v>27505</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="M52" s="7">
         <v>60</v>
@@ -7963,19 +8110,19 @@
         <v>66143</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>432</v>
+        <v>467</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>278</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C53" s="7">
         <v>68</v>
@@ -7984,13 +8131,13 @@
         <v>74934</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>118</v>
+        <v>431</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="H53" s="7">
         <v>74</v>
@@ -7999,13 +8146,13 @@
         <v>74096</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>646</v>
+        <v>683</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>647</v>
+        <v>684</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>648</v>
+        <v>685</v>
       </c>
       <c r="M53" s="7">
         <v>142</v>
@@ -8014,19 +8161,19 @@
         <v>149030</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>649</v>
+        <v>686</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>646</v>
+        <v>683</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C54" s="7">
         <v>260</v>
@@ -8035,13 +8182,13 @@
         <v>286215</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>650</v>
+        <v>687</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>651</v>
+        <v>688</v>
       </c>
       <c r="H54" s="7">
         <v>187</v>
@@ -8050,13 +8197,13 @@
         <v>184719</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>652</v>
+        <v>689</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>653</v>
+        <v>690</v>
       </c>
       <c r="M54" s="7">
         <v>447</v>
@@ -8065,19 +8212,19 @@
         <v>470934</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>654</v>
+        <v>691</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>655</v>
+        <v>692</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>656</v>
+        <v>693</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C55" s="7">
         <v>359</v>
@@ -8086,13 +8233,13 @@
         <v>377909</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>657</v>
+        <v>694</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>658</v>
+        <v>695</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>659</v>
+        <v>696</v>
       </c>
       <c r="H55" s="7">
         <v>289</v>
@@ -8101,13 +8248,13 @@
         <v>293214</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>660</v>
+        <v>697</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>661</v>
+        <v>698</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>662</v>
+        <v>699</v>
       </c>
       <c r="M55" s="7">
         <v>648</v>
@@ -8116,19 +8263,19 @@
         <v>671123</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>663</v>
+        <v>700</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>664</v>
+        <v>701</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>665</v>
+        <v>702</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C56" s="7">
         <v>601</v>
@@ -8137,13 +8284,13 @@
         <v>644625</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>666</v>
+        <v>703</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>667</v>
+        <v>704</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>668</v>
+        <v>705</v>
       </c>
       <c r="H56" s="7">
         <v>438</v>
@@ -8152,13 +8299,13 @@
         <v>457638</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>669</v>
+        <v>706</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>670</v>
+        <v>707</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>671</v>
+        <v>708</v>
       </c>
       <c r="M56" s="7">
         <v>1039</v>
@@ -8167,13 +8314,13 @@
         <v>1102263</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>672</v>
+        <v>709</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>673</v>
+        <v>710</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>674</v>
+        <v>711</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8188,13 +8335,13 @@
         <v>1422322</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H57" s="7">
         <v>1013</v>
@@ -8203,13 +8350,13 @@
         <v>1037172</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M57" s="7">
         <v>2336</v>
@@ -8218,18 +8365,18 @@
         <v>2459494</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
